--- a/结果/赵丽青.xlsx
+++ b/结果/赵丽青.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>姓名</t>
   </si>
@@ -50,19 +50,73 @@
     <t>单价</t>
   </si>
   <si>
+    <t>0051 第51章 ：不许拍照拍视频.docx</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1254</t>
+  </si>
+  <si>
+    <t>56.43</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
     <t>0052 第52章 ：让我撕了这个贱人.docx</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>1010</t>
   </si>
   <si>
     <t>45.45</t>
   </si>
   <si>
-    <t>45</t>
+    <t>0053 第53章 ：蠢到让人发指.docx</t>
+  </si>
+  <si>
+    <t>1195</t>
+  </si>
+  <si>
+    <t>53.775</t>
+  </si>
+  <si>
+    <t>0054 第54章 ：全完了.docx</t>
+  </si>
+  <si>
+    <t>1208</t>
+  </si>
+  <si>
+    <t>54.36</t>
+  </si>
+  <si>
+    <t>0055 第55章 ：心里很多的问号.docx</t>
+  </si>
+  <si>
+    <t>1109</t>
+  </si>
+  <si>
+    <t>49.905</t>
+  </si>
+  <si>
+    <t>0056 第56章 ：怎么不早说.docx</t>
+  </si>
+  <si>
+    <t>1140</t>
+  </si>
+  <si>
+    <t>51.3</t>
+  </si>
+  <si>
+    <t>0057 第57章 ：闹着玩？.docx</t>
+  </si>
+  <si>
+    <t>1306</t>
+  </si>
+  <si>
+    <t>58.77</t>
   </si>
   <si>
     <t>0058 第58章 ：哑巴吃黄连.docx</t>
@@ -74,22 +128,13 @@
     <t>57.105</t>
   </si>
   <si>
-    <t>0055 第55章 ：心里很多的问号.docx</t>
-  </si>
-  <si>
-    <t>1109</t>
-  </si>
-  <si>
-    <t>49.905</t>
-  </si>
-  <si>
-    <t>0056 第56章 ：怎么不早说.docx</t>
-  </si>
-  <si>
-    <t>1140</t>
-  </si>
-  <si>
-    <t>51.3</t>
+    <t>0059 第59章 ：冷月彤的惩罚.docx</t>
+  </si>
+  <si>
+    <t>1069</t>
+  </si>
+  <si>
+    <t>48.105</t>
   </si>
   <si>
     <t>0060 第60章 ：让黎城，再无冷氏.docx</t>
@@ -101,6 +146,15 @@
     <t>56.79</t>
   </si>
   <si>
+    <t>0086 第86章 ：值得让人欣赏.docx</t>
+  </si>
+  <si>
+    <t>1190</t>
+  </si>
+  <si>
+    <t>53.55</t>
+  </si>
+  <si>
     <t>0087 第87章 ：暖暖，先别冲动.docx</t>
   </si>
   <si>
@@ -108,60 +162,6 @@
   </si>
   <si>
     <t>47.205</t>
-  </si>
-  <si>
-    <t>0051 第51章 ：不许拍照拍视频.docx</t>
-  </si>
-  <si>
-    <t>1254</t>
-  </si>
-  <si>
-    <t>56.43</t>
-  </si>
-  <si>
-    <t>0086 第86章 ：值得让人欣赏.docx</t>
-  </si>
-  <si>
-    <t>1190</t>
-  </si>
-  <si>
-    <t>53.55</t>
-  </si>
-  <si>
-    <t>0053 第53章 ：蠢到让人发指.docx</t>
-  </si>
-  <si>
-    <t>1195</t>
-  </si>
-  <si>
-    <t>53.775</t>
-  </si>
-  <si>
-    <t>0054 第54章 ：全完了.docx</t>
-  </si>
-  <si>
-    <t>1208</t>
-  </si>
-  <si>
-    <t>54.36</t>
-  </si>
-  <si>
-    <t>0059 第59章 ：冷月彤的惩罚.docx</t>
-  </si>
-  <si>
-    <t>1069</t>
-  </si>
-  <si>
-    <t>48.105</t>
-  </si>
-  <si>
-    <t>0057 第57章 ：闹着玩？.docx</t>
-  </si>
-  <si>
-    <t>1306</t>
-  </si>
-  <si>
-    <t>58.77</t>
   </si>
 </sst>
 </file>
@@ -477,255 +477,6 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="C19" t="n">
-        <v>14061.0</v>
-      </c>
-      <c r="D19" t="n">
-        <v>632.745</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" t="s">
-        <v>10</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C22" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
-        <v>28</v>
-      </c>
-      <c r="E25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
-      </c>
-      <c r="E28" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
-      </c>
-      <c r="C30" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>47</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>16</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
